--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42882FEB-25C9-4897-A7ED-04AA5EBF22E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A3CD4-B4A0-429A-8431-ED3959236CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>10101</v>
+        <v>10201</v>
       </c>
       <c r="K4">
         <v>10501</v>
@@ -784,7 +784,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>10601</v>
+        <v>10201</v>
       </c>
       <c r="K6">
         <v>10501</v>
@@ -822,7 +822,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>10401</v>
+        <v>10201</v>
       </c>
       <c r="K7">
         <v>10501</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A3CD4-B4A0-429A-8431-ED3959236CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBFB41-5E84-4D0B-A5F7-3404ED12558C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBFB41-5E84-4D0B-A5F7-3404ED12558C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FF2B9-6635-4DF0-AB47-A3A4F3860931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
         <v>10201</v>
       </c>
       <c r="K4">
-        <v>10501</v>
+        <v>10102</v>
       </c>
       <c r="L4">
         <v>10901</v>
@@ -749,7 +749,7 @@
         <v>10201</v>
       </c>
       <c r="K5">
-        <v>10501</v>
+        <v>10102</v>
       </c>
       <c r="L5">
         <v>10901</v>
@@ -787,7 +787,7 @@
         <v>10201</v>
       </c>
       <c r="K6">
-        <v>10501</v>
+        <v>10102</v>
       </c>
       <c r="L6">
         <v>10901</v>
@@ -825,7 +825,7 @@
         <v>10201</v>
       </c>
       <c r="K7">
-        <v>10501</v>
+        <v>10102</v>
       </c>
       <c r="L7">
         <v>10901</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FF2B9-6635-4DF0-AB47-A3A4F3860931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D39CB-32B3-4EA6-A031-C1901150663E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,19 +683,19 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="4">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4">
         <v>100</v>
       </c>
       <c r="G4">

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D39CB-32B3-4EA6-A031-C1901150663E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A8388-098A-4E9A-86BD-9039FD26096C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -203,7 +203,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +223,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +549,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,8 +698,8 @@
       <c r="E4" s="4">
         <v>35</v>
       </c>
-      <c r="F4" s="4">
-        <v>100</v>
+      <c r="F4" s="7">
+        <v>20</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -734,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -772,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -810,7 +813,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>500</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A8388-098A-4E9A-86BD-9039FD26096C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D19AA1-3428-4D49-84CA-C2CEBD5AE244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -737,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -813,7 +813,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>500</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D19AA1-3428-4D49-84CA-C2CEBD5AE244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4BFD3-0C38-4E77-8947-EF1FE1C46146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -737,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -813,7 +813,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>500</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4BFD3-0C38-4E77-8947-EF1FE1C46146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCACD73-FA8C-4502-AA1A-17F5911765C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -737,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -813,7 +813,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>500</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/CharacterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCACD73-FA8C-4502-AA1A-17F5911765C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DBE12-B2AA-4C5C-B8E1-DA3B85725EB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{50378061-4796-4660-A6B7-713A0EEC2C44}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>key</t>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>워리어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item1_Count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartConsumeItem2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2_Count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비아이템2 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비아이템1 개수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +227,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +250,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,29 +579,32 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +641,17 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -643,8 +688,17 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -681,8 +735,17 @@
       <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -716,11 +779,20 @@
       <c r="K4">
         <v>10102</v>
       </c>
-      <c r="L4">
-        <v>10901</v>
+      <c r="L4" s="8">
+        <v>10701</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="10">
+        <v>10801</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -754,11 +826,20 @@
       <c r="K5">
         <v>10102</v>
       </c>
-      <c r="L5">
-        <v>10901</v>
+      <c r="L5" s="8">
+        <v>10701</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10">
+        <v>10801</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -792,11 +873,20 @@
       <c r="K6">
         <v>10102</v>
       </c>
-      <c r="L6">
-        <v>10901</v>
+      <c r="L6" s="8">
+        <v>10701</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10">
+        <v>10801</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -830,11 +920,20 @@
       <c r="K7">
         <v>10102</v>
       </c>
-      <c r="L7">
-        <v>10901</v>
+      <c r="L7" s="8">
+        <v>10701</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="10">
+        <v>10801</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H16" s="5"/>
     </row>
   </sheetData>
